--- a/biology/Botanique/Jardin_biblique/Jardin_biblique.xlsx
+++ b/biology/Botanique/Jardin_biblique/Jardin_biblique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un jardin biblique est un type de jardin à thème qui maintient en culture une collection de plantes citées dans la Bible. Ce type de jardin peut se situer dans le cadre d'un jardin botanique, d'un parc public ou d'un jardin privé[1],[2],[3],[4].
-Ces jardins sont cultivés dans de nombreuses régions du monde, notamment dans des endroits aussi divers que le Jardin botanique biblique de l'université Seinan Gakuin au Japon et le jardin botanique du Missouri aux États-Unis[5]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un jardin biblique est un type de jardin à thème qui maintient en culture une collection de plantes citées dans la Bible. Ce type de jardin peut se situer dans le cadre d'un jardin botanique, d'un parc public ou d'un jardin privé.
+Ces jardins sont cultivés dans de nombreuses régions du monde, notamment dans des endroits aussi divers que le Jardin botanique biblique de l'université Seinan Gakuin au Japon et le jardin botanique du Missouri aux États-Unis
 Les plantes de la Bible cultivées dans ces jardins sont l'ensemble des espèces de plantes citées dans les Écritures du Judaïsme et  du Christianisme . D'autres plantes associées aux thèmes et sujets de la Bible sont parfois également incluses, en particulier dans les régions aux climats différents. En outre, certains jardins exposent des objets afin d'illustrer des histoires bibliques ou de montrer comment les gens vivaient à l'époque biblique.
 </t>
         </is>
@@ -515,25 +527,132 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Israël
-Jardin biblique Yad Hashmona
+          <t>Israël</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Jardin biblique Yad Hashmona
 Neot Kedumim
-Jardin botanique de Jérusalem
-Europe
-Cathédrale d'Elgin[6],[7]
-Le Jardin du Livre - Valff 67210 (France) site internet
-États-Unis
-Jardin botanique de Huntsville, Huntsville (Alabama)
+Jardin botanique de Jérusalem</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jardin_biblique</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_biblique</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Jardins bibliques remarquables</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cathédrale d'Elgin,
+Le Jardin du Livre - Valff 67210 (France) site internet</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jardin_biblique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_biblique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Jardins bibliques remarquables</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>États-Unis</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jardin botanique de Huntsville, Huntsville (Alabama)
 Jardin botanique biblique Rodef Shalom, Pittsburgh (Pennsylvanie)
-Warsaw (Indiana)[4]
+Warsaw (Indiana)
 Jardin botanique de San Francisco
 Jardin botanique du Missouri
 Jardin biblique de Fair Haven, Fair Haven (Vermont)
 Cathédrale Saint-Jean-le-Théologien de New York
 Tree of life garden, Valley Center, Californie
-Musée de la Bible, Washington, D.C., jardin sur le toit[8]
-Japon
-Jardin botanique biblique de l'université Seinan Gakuin</t>
+Musée de la Bible, Washington, D.C., jardin sur le toit</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jardin_biblique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_biblique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Jardins bibliques remarquables</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Japon</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Jardin botanique biblique de l'université Seinan Gakuin</t>
         </is>
       </c>
     </row>
